--- a/web/src/main/webapp/temp/语种考试资质名单模板.xlsx
+++ b/web/src/main/webapp/temp/语种考试资质名单模板.xlsx
@@ -7,7 +7,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
